--- a/Running projects/Food Court North Walk/322 Invoice for installation of Fire Material food courts.xlsx
+++ b/Running projects/Food Court North Walk/322 Invoice for installation of Fire Material food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5922DA-0950-4EF8-B43A-9EC2157E3BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E8B78-097E-4235-8541-60445105874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Fire" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fire!$A$1:$F$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fire!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>S. #</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Installation of Fire Fighting Material for Food Court - The North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>FINAL INSTALLED</t>
   </si>
 </sst>
 </file>
@@ -154,11 +157,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +276,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,15 +346,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -357,16 +369,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,19 +394,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,6 +429,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -936,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -995,7 +1010,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+    </row>
     <row r="11" spans="1:6" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>27</v>
@@ -1490,7 +1514,8 @@
       <c r="I45" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>

--- a/Running projects/Food Court North Walk/322 Invoice for installation of Fire Material food courts.xlsx
+++ b/Running projects/Food Court North Walk/322 Invoice for installation of Fire Material food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E8B78-097E-4235-8541-60445105874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BBAA97-360C-405A-8822-1357AFBBD222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Fire" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fire!$A$1:$F$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fire!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>S. #</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Mciver Road, Karachi</t>
   </si>
   <si>
-    <t>SST Tax 13%</t>
-  </si>
-  <si>
     <t>For PIONEER SERVICES.</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>Installation of Fire Fighting Material for Food Court - The North Walk Shopping Mall</t>
   </si>
   <si>
-    <t>FINAL INSTALLED</t>
+    <t>SST Tax 15%</t>
   </si>
 </sst>
 </file>
@@ -161,7 +158,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,15 +273,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,9 +417,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,13 +443,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>132846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>155070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -561,13 +546,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>410845</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>96520</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>174642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -613,13 +598,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133230</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>346244</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -949,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:I45"/>
+  <dimension ref="A5:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="A1:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -978,10 +963,10 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="29">
-        <v>45187</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,10 +977,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1004,81 +989,92 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    </row>
+    <row r="14" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="19">
+        <v>126</v>
+      </c>
+      <c r="E15" s="22">
+        <v>150</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" ref="F15:F31" si="0">E15*D15</f>
+        <v>18900</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
@@ -1091,14 +1087,14 @@
         <v>7</v>
       </c>
       <c r="D16" s="19">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E16" s="22">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" ref="F16:F32" si="0">E16*D16</f>
-        <v>18900</v>
+        <f t="shared" si="0"/>
+        <v>18400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,14 +1108,14 @@
         <v>7</v>
       </c>
       <c r="D17" s="19">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E17" s="22">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>18400</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,103 +1129,103 @@
         <v>7</v>
       </c>
       <c r="D18" s="19">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E18" s="22">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="0"/>
-        <v>31500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>19</v>
+      <c r="A19" s="19">
+        <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="19">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E20" s="22">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="19">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E21" s="22">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F21" s="21">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="19">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E22" s="22">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>37</v>
@@ -1250,28 +1246,28 @@
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="22">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>39</v>
@@ -1292,7 +1288,7 @@
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>40</v>
@@ -1313,49 +1309,49 @@
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="22">
         <v>1000</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="19">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E28" s="22">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>23</v>
@@ -1364,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D29" s="19">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E29" s="22">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -1385,19 +1381,19 @@
         <v>7</v>
       </c>
       <c r="D30" s="19">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E30" s="22">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="0"/>
-        <v>17000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>25</v>
@@ -1406,122 +1402,100 @@
         <v>7</v>
       </c>
       <c r="D31" s="19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31" s="22">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
-        <v>14</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="19">
-        <v>18</v>
-      </c>
-      <c r="E32" s="22">
-        <v>150</v>
-      </c>
-      <c r="F32" s="21">
-        <f t="shared" si="0"/>
         <v>2700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="13">
+        <f>SUM(F14:F31)</f>
+        <v>212300</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
-      <c r="F33" s="13">
-        <f>SUM(F15:F32)</f>
-        <v>212300</v>
-      </c>
+      <c r="F33" s="11">
+        <f>F32*15%</f>
+        <v>31845</v>
+      </c>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="11">
-        <f>F33*13%</f>
-        <v>27599</v>
-      </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="11">
-        <f>SUM(F33:F34)</f>
-        <v>239899</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="12"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="5"/>
+        <f>SUM(F32:F33)</f>
+        <v>244145</v>
+      </c>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="12"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="I38" s="10"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="15"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="10"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0.3"/>
